--- a/docs/quizsheets/dsaide_hostheterogeneity.xlsx
+++ b/docs/quizsheets/dsaide_hostheterogeneity.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,30 +365,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AppTitle</t>
+          <t>TaskID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TaskID</t>
+          <t>RecordID</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RecordID</t>
+          <t>Record</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Record</t>
+          <t>Note</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Answer</t>
         </is>
@@ -402,25 +397,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>2</v>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>T1R1</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T2R1</t>
+          <t>Number susceptible of type 1 left at end of simulation</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>R~0~ for type 1 hosts</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Round to the tenths</t>
+          <t>Report the rounded integer</t>
         </is>
       </c>
     </row>
@@ -432,25 +424,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>2</v>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>T1R2</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T2R2</t>
+          <t>Number susceptible of type 2 left at end of simulation</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>R~0~ for type 2 hosts</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Round to the tenths</t>
+          <t>Report the rounded integer</t>
         </is>
       </c>
     </row>
@@ -462,23 +451,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>3</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>T2R1</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>T3R1</t>
+          <t>R0 for type 1 hosts</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>Number of type 1 susceptible remaining at the end</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -492,23 +478,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>3</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>T2R2</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T3R2</t>
+          <t>R0 for type 2 hosts</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>Number of type 2 susceptible remaining at the end</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -522,23 +505,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>4</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>T3R1</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>T4R1</t>
+          <t>R0 for type 1 hosts</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>Number of type 1 susceptible remaining at the end</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -552,23 +532,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>4</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>T3R2</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T4R2</t>
+          <t>R0 for type 2 hosts</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>Number of type 2 susceptible remaining at the end</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -582,23 +559,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>5</v>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>T4R1</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>T5R1</t>
+          <t>Number susceptible of type 1 left at end of simulation</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>Number of type 1 susceptible remaining at the end</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -612,23 +586,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>5</v>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>T4R2</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>T5R2</t>
+          <t>Number susceptible of type 2 left at end of simulation</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
-        <is>
-          <t>Number of type 2 susceptible remaining at the end</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -642,23 +613,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>6</v>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>T6R1</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>T6R1</t>
+          <t>Number susceptible of type 1 left at end of simulation</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
-        <is>
-          <t>Number of type 1 recovered at the end</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -672,23 +640,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>6</v>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>T6R2</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>T6R2</t>
+          <t>Number susceptible of type 2 left at end of simulation</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
-        <is>
-          <t>Number of type 2 recovered at the end</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -702,23 +667,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>7</v>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>T7R1</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>T7R1</t>
+          <t>Number susceptible of type 1 left at end of simulation</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
-        <is>
-          <t>Number of type 1 recovered at the end</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -732,23 +694,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>7</v>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>T7R2</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>T7R2</t>
+          <t>Number susceptible of type 2 left at end of simulation</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
-        <is>
-          <t>Number of type 2 recovered at the end</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -762,23 +721,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>8</v>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>T8R1</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>T8R1</t>
+          <t>Number susceptible of type 1 left at end of simulation</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
-        <is>
-          <t>Number of type 1 susceptible remaining at the end</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -792,205 +748,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>8</v>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>T9R1</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>T8R2</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Number of type 2 susceptible remaining at the end</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Report the rounded integer</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>dsaide_hostheterogeneity</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C16">
-        <v>9</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>T9R1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Number of type 1 susceptible remaining at the end</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Report the rounded integer</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>dsaide_hostheterogeneity</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>9</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>T9R2</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Number of type 2 susceptible remaining at the end</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Report the rounded integer</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>dsaide_hostheterogeneity</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C18">
-        <v>13</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>T13R1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Number of type 1 susceptible remaining at the end</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Report the rounded integer</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>dsaide_hostheterogeneity</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C19">
-        <v>13</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>T13R2</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Number of type 2 susceptible remaining at the end</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Report the rounded integer</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>dsaide_hostheterogeneity</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C20">
-        <v>14</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>T14R1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Number of type 1 susceptible remaining at the end</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Report the rounded integer</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>dsaide_hostheterogeneity</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Host heterogeneity</t>
-        </is>
-      </c>
-      <c r="C21">
-        <v>14</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>T14R2</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Number of type 2 susceptible remaining at the end</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Report the rounded integer</t>
+          <t>Value for b12 at wich steady state values for both populations are the same.</t>
         </is>
       </c>
     </row>

--- a/docs/quizsheets/dsaide_hostheterogeneity.xlsx
+++ b/docs/quizsheets/dsaide_hostheterogeneity.xlsx
@@ -731,7 +731,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Number susceptible of type 1 left at end of simulation</t>
+          <t>Number susceptible of type 2 left at end of simulation</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Value for b12 at wich steady state values for both populations are the same.</t>
+          <t>Value for b21 at which steady state values for both populations are the same.</t>
         </is>
       </c>
     </row>
